--- a/Plancheck/plancheck_data/check_protocol/v19/poumon.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/v19/poumon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -346,9 +346,6 @@
     <t>Abaissement</t>
   </si>
   <si>
-    <t>ORL</t>
-  </si>
-  <si>
     <t>Canal med</t>
   </si>
   <si>
@@ -455,6 +452,9 @@
   </si>
   <si>
     <t>D0,1cc&lt;66Gy</t>
+  </si>
+  <si>
+    <t>Poumon</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1440,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1602,7 +1602,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -2270,10 +2270,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2282,79 +2282,79 @@
         <v>Oesophage</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2392,67 +2392,67 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2543,7 +2543,7 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2595,53 +2595,53 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
         <v>140</v>
-      </c>
-      <c r="C5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>136</v>
-      </c>
-      <c r="D7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2650,10 +2650,10 @@
         <v>Oesophage</v>
       </c>
       <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Plancheck/plancheck_data/check_protocol/v19/poumon.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/v19/poumon.xlsx
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1910,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
@@ -2092,7 +2092,7 @@
         <v>102</v>
       </c>
       <c r="B45" s="22">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -2151,7 +2151,7 @@
         <v>106</v>
       </c>
       <c r="B49" s="22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>

--- a/Plancheck/plancheck_data/check_protocol/v19/poumon.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/v19/poumon.xlsx
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1571,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>

--- a/Plancheck/plancheck_data/check_protocol/v19/poumon.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/v19/poumon.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -455,6 +455,33 @@
   </si>
   <si>
     <t>Poumon</t>
+  </si>
+  <si>
+    <t>AutomaticHighDensityMaterial__</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>DoseReportingMode</t>
+  </si>
+  <si>
+    <t>Dose to medium</t>
+  </si>
+  <si>
+    <t>MaximumAutomaticHighDensityVolumeInCM3__</t>
+  </si>
+  <si>
+    <t>0,50</t>
+  </si>
+  <si>
+    <t>PlanDoseCalculation</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1468,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A32" sqref="A32:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,10 +1951,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="26">
-        <v>0.125</v>
+        <v>144</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -1941,7 +1968,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="26">
         <v>0.125</v>
@@ -1958,10 +1985,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>5</v>
+        <v>91</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0.125</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -1975,10 +2002,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -1991,8 +2018,12 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>5</v>
+      </c>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
@@ -2004,8 +2035,12 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>6</v>
+      </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -2017,8 +2052,12 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -2030,8 +2069,12 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>151</v>
+      </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
@@ -2043,8 +2086,12 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
